--- a/国内因环保关停并转的化工厂.xlsx
+++ b/国内因环保关停并转的化工厂.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\merchantMarket\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="8895" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="108" windowWidth="20412" windowHeight="8892" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="粗" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="京津冀及周边传输通道“2+26”城市" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="208">
   <si>
     <t>四川</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,9 +117,6 @@
   <si>
     <t>深圳</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“气十条”、“水十条”、大气强化措施工作进展情况，“散乱污”、“十小”</t>
   </si>
   <si>
     <t>关停</t>
@@ -447,30 +451,6 @@
     <t>“十五小”和“新五小"企业</t>
   </si>
   <si>
-    <t>一、「十五小」</t>
-  </si>
-  <si>
-    <t>1、小造纸 — 现有年产1万吨以下的造纸厂。</t>
-  </si>
-  <si>
-    <t>2、小制革 — 年产折牛皮3万张以下的制革厂（2张猪皮折一张牛皮，6张羊皮折1张牛皮）。</t>
-  </si>
-  <si>
-    <t>3、小染料 — 年产1000吨以下的染料厂，包括1000吨以下的染料中间体生产企业。</t>
-  </si>
-  <si>
-    <t>4、土法炼砷 — 采用地坑或坩埚炉烧、简易冷凝设施收尘等落后方式炼制氧化砷或金属砷制品，现年产砷（或氧化砷制品含量）100吨以下的企业。</t>
-  </si>
-  <si>
-    <t>5、土法炼汞 — 采用土铁埚和土灶、蒸馏罐、坩埚炉及简易冷凝收尘设施等落后方法炼贡，现年产贡10t以下的企业。</t>
-  </si>
-  <si>
-    <t>6、土法炼铅锌 — 采用土烧结盘、简易土高炉等落后方法炼铅，用土制横罐、马弗炉、马糟炉等进行焙烧、简易冷凝设施进行收尘等落后方式炼锌或氧化锌制品，现年产铅或锌（或氧化锌含量）2000吨以下的企业。</t>
-  </si>
-  <si>
-    <t>7、土法炼油 — 未经国务院批准，盲目建设的小型石油炼油厂和土法炼油设施；</t>
-  </si>
-  <si>
     <t>生产过程不是在密闭系统的炼油装置中或属于釜式蒸馏的炼油企业；</t>
   </si>
   <si>
@@ -480,27 +460,6 @@
     <t>不符合国家职业安全卫生标准的炼油企业。</t>
   </si>
   <si>
-    <t>8、土法选金 — 采用小氰化池、小混贡和溜槽等黄金选冶金的企业。</t>
-  </si>
-  <si>
-    <t>9、土法农药 — 产品无一定结构成分，没有通过技术鉴定，没有产品技术标准，没有正常安全生产必需的厂房、设备和工艺操作标准，没有必要检测手段的小型农药原药生产或制剂加工企业。</t>
-  </si>
-  <si>
-    <r>
-      <t>10、土法漂染 — 年生产能力在1000万m以下，所排废水符合下列情况之一的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF3F3F3F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>漂染企业：</t>
-    </r>
-  </si>
-  <si>
     <t>每百米布所生产的废水大于2.8t；</t>
   </si>
   <si>
@@ -510,71 +469,12 @@
     <t>色度大于80倍（稀释倍数）。</t>
   </si>
   <si>
-    <t>11、土法电镀 — 电镀废液不能或基本不能达标的电镀企业。</t>
-  </si>
-  <si>
-    <t>12、土法生产石棉制品 — 采用手工生产石棉制品的企业。</t>
-  </si>
-  <si>
-    <t>13、土法生产发射性铀制品 —未经国家或行业主管部门批准列入规划、计划、未取得建筑、运行和产品销售许可证，没有健全的防护措施和监测计划、设施的炼铀等放射性产品生产企业。</t>
-  </si>
-  <si>
-    <t>14、土法炼焦 — 采用“坑式”、“萍乡式”炼焦的企业。</t>
-  </si>
-  <si>
-    <t>15、土法炼硫 — 采用“天地罐”或“敞开式”炼硫的企业。</t>
-  </si>
-  <si>
-    <t>这种细分方法是一个动态概念，随着经济的发展，范围有所变化，如2004年年生产能力小于1万t的化学制浆造纸生产装置也属于“十五小”之列。</t>
-  </si>
-  <si>
-    <t>二、「新五小」</t>
-  </si>
-  <si>
-    <t>1、小钢铁—年产普碳钢30万t以下（含）的小炼钢厂，横列式小型材、线材轧机年产量25万t以下（含）的小轧钢厂，100m3以下（含）高炉，3200kVA及以下铁合金电炉，15t（含）转炉。</t>
-  </si>
-  <si>
-    <t>2、小水泥 — 窑径小于2m（年产3万t以下）水泥普通立窑生产线，窑径小于2.2 m（年产4.4万t以下）水泥机械化立窑生产线。</t>
-  </si>
-  <si>
-    <t>3、小炼油 — 无合法资源配置，通过非法手段获得原油资源，产品质量低劣，安全环保达不到国家标准的成品油生产装置，2000年1月1日前不能生产90号及90号以上车用无铅汽油的成品油生产装置。</t>
-  </si>
-  <si>
-    <t>4、小玻璃 — 平板魄力平拉工艺生产线（不含格拉威贝尔平拉工艺），四机（含）以下垂直引上平板玻璃生产线。</t>
-  </si>
-  <si>
-    <t>5、小化工—采用落后工艺生产落后产品、规模较小的化工企业，一般能耗高、生产能力低（年产能力在2万t以下）。</t>
-  </si>
-  <si>
     <t>附件二：「小散乱污」企业：</t>
   </si>
   <si>
-    <t>符合以下一项或几项的企业或个体工商户，均属于“小散乱污”企业，由当地政府、管委会一律予以取缔。</t>
-  </si>
-  <si>
-    <t>第一，不符合国家、省产业政策和当地产业布局规划以及污染物排放不达标的企业。</t>
-  </si>
-  <si>
-    <r>
-      <t>第二，土地、环保、工商、质监等手续不全的企业。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3F3F3F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>重点是有色熔炼加工、橡胶生产、制革、化工、陶瓷烧制、铸造、丝网加工、轧钢、耐火材料、碳素生产、石灰窑、砖瓦窑、水泥粉磨站、废塑料加工以及涉及涂料、油墨、胶粘剂、有机溶剂等使用的印刷、家具等小型制造加工企业。</t>
-    </r>
-  </si>
-  <si>
     <t>京津冀及周边传输通道“2+26”城市</t>
   </si>
   <si>
-    <t>北京、天津市，河北省石家庄、唐山、保定、廊坊、沧州、衡水、邯郸、邢台市，山西省太原、阳泉、长治、晋城市，山东省济南、淄博、聊城、德州、滨州、济宁、菏泽市，河南省郑州、新乡、鹤壁、安阳、焦作、濮阳、开封市</t>
-  </si>
-  <si>
     <t>南京</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -587,57 +487,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目前陕西省摸排“散乱污”企业4631户，今年计划清理取缔1605户，已清理取缔2599户，完成全年任务的162%。</t>
-  </si>
-  <si>
-    <t>福建省</t>
-  </si>
-  <si>
-    <t>截至目前，福建晋江已依法取缔63家“小散乱污”企业。为打击这类“小散乱污”企业，晋江也启动专项整治，行动从2017年11月27日开始，持续至2018年4月30日。</t>
-  </si>
-  <si>
-    <t>新疆维吾尔自治区</t>
-  </si>
-  <si>
-    <t>11月20日，乌鲁木齐市人民政府印发《乌鲁木齐市“散乱污”企业综合治理工作实施方案》，计划对全市对有色金属熔炼加工、橡胶生产、制革、化工、陶瓷烧制、铸造、丝网加工、轧钢、耐火材料等小型制造加工类行业存在的“散乱污”，集中进行整治。并计划在2017年12月31日前，全面完成“散乱污”企业整改和关停工作。</t>
-  </si>
-  <si>
-    <t>河南省</t>
-  </si>
-  <si>
-    <t>河南省委省政府高度重视生态文明建设，下大力抓好环境污染防治工作，2017年，整治取缔“散乱污”企业83102家，其中整治39837家，取缔43265家。</t>
-  </si>
-  <si>
-    <t>广东省</t>
-  </si>
-  <si>
-    <t>截至9月30日，江门市已关停取缔企业571家，整治提升企业80家，加强监管企业210家，江门“小散乱污”企业专项整治工作取得阶段性成果，已完成进度92.39%。</t>
-  </si>
-  <si>
-    <t>11月16日，肇庆市政府印发《2017年度今冬明春大气污染防治专项工作方案》对落实各项措施提出了更严格的要求，对未完成整改的小散乱污企业，采取强制措施;对手续不全的涉VOCs排放散乱污企业进行全面清理。</t>
-  </si>
-  <si>
-    <t>广州市天河区11月中旬曾一周关停“散乱污”企业228家。</t>
-  </si>
-  <si>
-    <t>江苏省</t>
-  </si>
-  <si>
-    <t>截止目前，江苏苏州已初步排查上报“散乱污”企业(作坊)11454家。按照“依法关停一批、提标改造一批”的原则，有关部门将对使用淘汰设备类、审批手续不全或不符合产业规划、违法建设违规用地、违法排污、存在安全隐患的“散乱污”企业一律关停，对具备升级改造条件的实施治理改造，已清理“散乱污”企业1702家、整治提升4400家。总体上看，整治工作取得一定进展，但对照整改目标和要求，仍然存在不少问题和薄弱环节。</t>
-  </si>
-  <si>
-    <t>浙江省</t>
-  </si>
-  <si>
-    <t>11月20日，浙江省环境保护厅下发了《浙江省挥发性有机物深化治理与减排工作方案(2017-2020年)》政策解读，强调要加快推进“散乱污”企业综合整治，2017年底前完成涉VOCs“散乱污”企业排查工作，建立管理台账，2018年底前依法依规完成清理整顿工作。严格建设项目环境准入要求，提高VOCs排放重点行业环保准入门槛，控制新增污染物排放量，新增VOCs排放量实行区域内现役源削减替代。强化重点企业减排调控，加强工业企业大气污染物排放监管，强化季节性减排调控力度。</t>
-  </si>
-  <si>
-    <t>内蒙古自治区</t>
-  </si>
-  <si>
-    <t>今年以来，包头市密集出台了大气、水、土壤污染防治方案等49项制度措施，强力推动各项环保治理工程实施。开展生态环境违法行为专项检查、“散乱污”企业集中整治行动、环保“利剑”、“蓝天”系列专项行动，有力地震慑了各类环境违法行为。</t>
-  </si>
-  <si>
     <t>综上所述，河北省“散乱污”整治取缔企业最多，在2017年至2018年秋冬季大气污染综合治理攻坚行动中，河北整治无治理设施或治理设施简陋的“散乱污”企业10.9万家。通过整治，管理粗放甚至直排的企业得到了有效管控，减少了各类污染物的实际排放量。随着国家环保政策的加严，预计今后整治取缔“散乱污”企业的力度将会有增无减。</t>
   </si>
   <si>
@@ -690,14 +539,348 @@
   </si>
   <si>
     <t>福建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“气十条”,“水十条”,大气强化措施工作进展情况,“散乱污”,“十小”</t>
+  </si>
+  <si>
+    <t>一,「十五小」</t>
+  </si>
+  <si>
+    <t>1,小造纸 — 现有年产1万吨以下的造纸厂。</t>
+  </si>
+  <si>
+    <t>2,小制革 — 年产折牛皮3万张以下的制革厂（2张猪皮折一张牛皮,6张羊皮折1张牛皮）。</t>
+  </si>
+  <si>
+    <t>3,小染料 — 年产1000吨以下的染料厂,包括1000吨以下的染料中间体生产企业。</t>
+  </si>
+  <si>
+    <t>4,土法炼砷 — 采用地坑或坩埚炉烧,简易冷凝设施收尘等落后方式炼制氧化砷或金属砷制品,现年产砷（或氧化砷制品含量）100吨以下的企业。</t>
+  </si>
+  <si>
+    <t>5,土法炼汞 — 采用土铁埚和土灶,蒸馏罐,坩埚炉及简易冷凝收尘设施等落后方法炼贡,现年产贡10t以下的企业。</t>
+  </si>
+  <si>
+    <t>6,土法炼铅锌 — 采用土烧结盘,简易土高炉等落后方法炼铅,用土制横罐,马弗炉,马糟炉等进行焙烧,简易冷凝设施进行收尘等落后方式炼锌或氧化锌制品,现年产铅或锌（或氧化锌含量）2000吨以下的企业。</t>
+  </si>
+  <si>
+    <t>7,土法炼油 — 未经国务院批准,盲目建设的小型石油炼油厂和土法炼油设施；</t>
+  </si>
+  <si>
+    <t>8,土法选金 — 采用小氰化池,小混贡和溜槽等黄金选冶金的企业。</t>
+  </si>
+  <si>
+    <t>9,土法农药 — 产品无一定结构成分,没有通过技术鉴定,没有产品技术标准,没有正常安全生产必需的厂房,设备和工艺操作标准,没有必要检测手段的小型农药原药生产或制剂加工企业。</t>
+  </si>
+  <si>
+    <t>10,土法漂染 — 年生产能力在1000万m以下,所排废水符合下列情况之一的漂染企业：</t>
+  </si>
+  <si>
+    <t>11,土法电镀 — 电镀废液不能或基本不能达标的电镀企业。</t>
+  </si>
+  <si>
+    <t>12,土法生产石棉制品 — 采用手工生产石棉制品的企业。</t>
+  </si>
+  <si>
+    <t>13,土法生产发射性铀制品 —未经国家或行业主管部门批准列入规划,计划,未取得建筑,运行和产品销售许可证,没有健全的防护措施和监测计划,设施的炼铀等放射性产品生产企业。</t>
+  </si>
+  <si>
+    <t>14,土法炼焦 — 采用“坑式”,“萍乡式”炼焦的企业。</t>
+  </si>
+  <si>
+    <t>15,土法炼硫 — 采用“天地罐”或“敞开式”炼硫的企业。</t>
+  </si>
+  <si>
+    <t>这种细分方法是一个动态概念,随着经济的发展,范围有所变化,如2004年年生产能力小于1万t的化学制浆造纸生产装置也属于“十五小”之列。</t>
+  </si>
+  <si>
+    <t>二,「新五小」</t>
+  </si>
+  <si>
+    <t>1,小钢铁—年产普碳钢30万t以下（含）的小炼钢厂,横列式小型材,线材轧机年产量25万t以下（含）的小轧钢厂,100m3以下（含）高炉,3200kVA及以下铁合金电炉,15t（含）转炉。</t>
+  </si>
+  <si>
+    <t>2,小水泥 — 窑径小于2m（年产3万t以下）水泥普通立窑生产线,窑径小于2.2 m（年产4.4万t以下）水泥机械化立窑生产线。</t>
+  </si>
+  <si>
+    <t>3,小炼油 — 无合法资源配置,通过非法手段获得原油资源,产品质量低劣,安全环保达不到国家标准的成品油生产装置,2000年1月1日前不能生产90号及90号以上车用无铅汽油的成品油生产装置。</t>
+  </si>
+  <si>
+    <t>4,小玻璃 — 平板魄力平拉工艺生产线（不含格拉威贝尔平拉工艺）,四机（含）以下垂直引上平板玻璃生产线。</t>
+  </si>
+  <si>
+    <t>5,小化工—采用落后工艺生产落后产品,规模较小的化工企业,一般能耗高,生产能力低（年产能力在2万t以下）。</t>
+  </si>
+  <si>
+    <t>符合以下一项或几项的企业或个体工商户,均属于“小散乱污”企业,由当地政府,管委会一律予以取缔。</t>
+  </si>
+  <si>
+    <t>第一,不符合国家,省产业政策和当地产业布局规划以及污染物排放不达标的企业。</t>
+  </si>
+  <si>
+    <t>第二,土地,环保,工商,质监等手续不全的企业。重点是有色熔炼加工,橡胶生产,制革,化工,陶瓷烧制,铸造,丝网加工,轧钢,耐火材料,碳素生产,石灰窑,砖瓦窑,水泥粉磨站,废塑料加工以及涉及涂料,油墨,胶粘剂,有机溶剂等使用的印刷,家具等小型制造加工企业。</t>
+  </si>
+  <si>
+    <t>北京,天津市,河北省石家庄,唐山,保定,廊坊,沧州,衡水,邯郸,邢台市,山西省太原,阳泉,长治,晋城市,山东省济南,淄博,聊城,德州,滨州,济宁,菏泽市,河南省郑州,新乡,鹤壁,安阳,焦作,濮阳,开封市</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>天津市</t>
+  </si>
+  <si>
+    <t>河北省石家庄</t>
+  </si>
+  <si>
+    <t>唐山</t>
+  </si>
+  <si>
+    <t>保定</t>
+  </si>
+  <si>
+    <t>廊坊</t>
+  </si>
+  <si>
+    <t>沧州</t>
+  </si>
+  <si>
+    <t>衡水</t>
+  </si>
+  <si>
+    <t>邯郸</t>
+  </si>
+  <si>
+    <t>邢台市</t>
+  </si>
+  <si>
+    <t>山西省太原</t>
+  </si>
+  <si>
+    <t>阳泉</t>
+  </si>
+  <si>
+    <t>长治</t>
+  </si>
+  <si>
+    <t>晋城市</t>
+  </si>
+  <si>
+    <t>山东省济南</t>
+  </si>
+  <si>
+    <t>淄博</t>
+  </si>
+  <si>
+    <t>聊城</t>
+  </si>
+  <si>
+    <t>德州</t>
+  </si>
+  <si>
+    <t>滨州</t>
+  </si>
+  <si>
+    <t>济宁</t>
+  </si>
+  <si>
+    <t>菏泽市</t>
+  </si>
+  <si>
+    <t>河南省郑州</t>
+  </si>
+  <si>
+    <t>新乡</t>
+  </si>
+  <si>
+    <t>鹤壁</t>
+  </si>
+  <si>
+    <t>安阳</t>
+  </si>
+  <si>
+    <t>焦作</t>
+  </si>
+  <si>
+    <t>濮阳</t>
+  </si>
+  <si>
+    <t>开封市</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>石家庄</t>
+  </si>
+  <si>
+    <t>邢台</t>
+  </si>
+  <si>
+    <t>太原</t>
+  </si>
+  <si>
+    <t>晋城</t>
+  </si>
+  <si>
+    <t>济南</t>
+  </si>
+  <si>
+    <t>菏泽</t>
+  </si>
+  <si>
+    <t>郑州</t>
+  </si>
+  <si>
+    <t>开封</t>
+  </si>
+  <si>
+    <t>散乱污企业数</t>
+  </si>
+  <si>
+    <t>京津冀及周边传输通道“2+26”城市散乱污企业数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肇庆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宿州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>fold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s8h8c8cAhK     3 of a kind</t>
+  </si>
+  <si>
+    <t>第1大</t>
+  </si>
+  <si>
+    <t>s8h8d8cAd9     3 of a kind</t>
+  </si>
+  <si>
+    <t>第2大</t>
+  </si>
+  <si>
+    <t>c9d9s8h8cA     two pairs</t>
+  </si>
+  <si>
+    <t>第3大</t>
+  </si>
+  <si>
+    <t>s8h8h7c7cA     two pairs</t>
+  </si>
+  <si>
+    <t>第4大</t>
+  </si>
+  <si>
+    <t>s8h8cAhTd9     one pair</t>
+  </si>
+  <si>
+    <t>第5大</t>
+  </si>
+  <si>
+    <t>stack:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rhys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gould</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spry</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="\$#,##0;\-\$#,##0"/>
+    <numFmt numFmtId="177" formatCode=";;;"/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -858,16 +1041,52 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -875,6 +1094,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -885,7 +1149,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -969,6 +1233,45 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -977,11 +1280,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1023,7 +1334,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1055,9 +1366,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1089,6 +1418,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1264,7 +1611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1272,10 +1619,10 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1328,15 +1675,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -1380,7 +1727,7 @@
         <v>25483</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1389,7 +1736,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1400,7 +1747,7 @@
         <v>2000</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1408,7 +1755,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15">
@@ -1435,52 +1782,52 @@
     </row>
     <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>193</v>
       </c>
       <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>32</v>
-      </c>
-      <c r="I9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.25">
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11">
         <v>157</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C12">
         <v>59</v>
@@ -1488,75 +1835,75 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C13">
         <v>69000</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="C14">
         <v>309</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="C15">
         <v>6005</v>
       </c>
       <c r="G15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="26"/>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="C16">
         <v>9081</v>
       </c>
       <c r="G16" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="19" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="C17">
         <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="27" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="C18">
         <v>6757</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1567,205 +1914,138 @@
         <v>14148</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="27" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="I20" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="19" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="C21">
         <v>2599</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="27" t="s">
-        <v>150</v>
+        <v>105</v>
+      </c>
+      <c r="B22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22">
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="19"/>
-    </row>
-    <row r="24" spans="1:9" ht="14.25">
-      <c r="A24" s="26"/>
+      <c r="A23" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23">
+        <v>39837</v>
+      </c>
+      <c r="G23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24">
+        <v>43265</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="19"/>
-    </row>
-    <row r="26" spans="1:9" ht="14.25">
-      <c r="A26" s="26"/>
+      <c r="A25" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25">
+        <v>571</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26">
+        <v>80</v>
+      </c>
+      <c r="G26" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="19"/>
-    </row>
-    <row r="28" spans="1:9" ht="14.25">
-      <c r="A28" s="26"/>
+      <c r="A27" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="19"/>
+      <c r="B28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28">
+        <v>228</v>
+      </c>
+      <c r="G28" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="19"/>
-    </row>
-    <row r="30" spans="1:9" ht="14.25">
-      <c r="A30" s="26"/>
+      <c r="A29" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29">
+        <v>1702</v>
+      </c>
+      <c r="G29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="19"/>
+      <c r="C30">
+        <v>4400</v>
+      </c>
+      <c r="G30" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="19"/>
     </row>
-    <row r="32" spans="1:9" ht="14.25">
-      <c r="A32" s="26"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="19"/>
-    </row>
-    <row r="34" spans="1:1" ht="14.25">
-      <c r="A34" s="26" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="19"/>
-    </row>
-    <row r="36" spans="1:1" ht="14.25">
-      <c r="A36" s="26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="19"/>
-    </row>
-    <row r="38" spans="1:1" ht="14.25">
-      <c r="A38" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="19"/>
-    </row>
-    <row r="40" spans="1:1" ht="14.25">
-      <c r="A40" s="26" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="19"/>
-    </row>
-    <row r="42" spans="1:1" ht="14.25">
-      <c r="A42" s="26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="19"/>
-    </row>
-    <row r="44" spans="1:1" ht="14.25">
-      <c r="A44" s="26" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="19"/>
-    </row>
-    <row r="46" spans="1:1" ht="14.25">
-      <c r="A46" s="26" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="19"/>
-    </row>
-    <row r="48" spans="1:1" ht="14.25">
-      <c r="A48" s="26" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="19"/>
-    </row>
-    <row r="50" spans="1:1" ht="14.25">
-      <c r="A50" s="26" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="19"/>
-    </row>
-    <row r="52" spans="1:1" ht="14.25">
-      <c r="A52" s="26" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="19"/>
-    </row>
-    <row r="54" spans="1:1" ht="14.25">
-      <c r="A54" s="26" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="19"/>
-    </row>
-    <row r="56" spans="1:1" ht="14.25">
-      <c r="A56" s="26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="19"/>
-    </row>
-    <row r="58" spans="1:1" ht="14.25">
-      <c r="A58" s="26" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="19"/>
-    </row>
-    <row r="60" spans="1:1" ht="14.25">
-      <c r="A60" s="26" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="19"/>
-    </row>
-    <row r="62" spans="1:1" ht="14.25">
-      <c r="A62" s="26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="19"/>
-    </row>
-    <row r="64" spans="1:1" ht="14.25">
-      <c r="A64" s="26" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="19"/>
-    </row>
-    <row r="66" spans="1:1" ht="14.25">
-      <c r="A66" s="26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="19"/>
-    </row>
-    <row r="68" spans="1:1" ht="14.25">
-      <c r="A68" s="26" t="s">
-        <v>137</v>
+    <row r="32" spans="1:9">
+      <c r="A32" s="26" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1775,67 +2055,67 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:A57"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" customHeight="1">
@@ -1845,7 +2125,7 @@
     </row>
     <row r="12" spans="1:1" ht="15.75" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" customHeight="1">
@@ -1855,17 +2135,17 @@
     </row>
     <row r="14" spans="1:1" ht="15.75" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1">
@@ -1875,142 +2155,142 @@
     </row>
     <row r="18" spans="1:1" ht="15.75" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" customHeight="1">
       <c r="A25" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" customHeight="1">
       <c r="A29" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" customHeight="1">
       <c r="A31" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" customHeight="1">
       <c r="A32" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" customHeight="1">
       <c r="A35" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" customHeight="1">
       <c r="A36" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" customHeight="1">
       <c r="A38" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" customHeight="1">
       <c r="A39" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" customHeight="1">
       <c r="A40" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" customHeight="1">
       <c r="A41" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" customHeight="1">
       <c r="A44" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" customHeight="1">
       <c r="A45" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" customHeight="1">
@@ -2056,15 +2336,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="19"/>
     <col min="2" max="16384" width="9" style="6"/>
@@ -2072,191 +2352,992 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.6">
       <c r="A2" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15">
-      <c r="A3" s="21" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.25">
-      <c r="A4" s="22" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.25">
-      <c r="A5" s="22" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.25">
-      <c r="A6" s="22" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.25">
-      <c r="A7" s="22" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14.25">
-      <c r="A8" s="22" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="23" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="14.25">
-      <c r="A9" s="22" t="s">
+    <row r="33" spans="1:28">
+      <c r="A33" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="A34" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="A35" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" ht="20.399999999999999">
+      <c r="A36" s="24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.25">
-      <c r="A10" s="22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="14.25">
-      <c r="A11" s="22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="14.25">
-      <c r="A12" s="22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="14.25">
-      <c r="A13" s="22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="14.25">
-      <c r="A14" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="14.25">
-      <c r="A15" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="15">
-      <c r="A16" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="14.25">
-      <c r="A17" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="14.25">
-      <c r="A18" s="22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="14.25">
-      <c r="A19" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="14.25">
-      <c r="A20" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="14.25">
-      <c r="A21" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="14.25">
-      <c r="A22" s="22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="14.25">
-      <c r="A23" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="14.25">
-      <c r="A24" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="14.25">
-      <c r="A25" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="15">
-      <c r="A26" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="14.25">
-      <c r="A27" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="14.25">
-      <c r="A28" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="14.25">
-      <c r="A29" s="22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="14.25">
-      <c r="A30" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="14.25">
-      <c r="A31" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="15">
-      <c r="A32" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="14.25">
-      <c r="A33" s="22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="15">
-      <c r="A34" s="21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="15">
-      <c r="A35" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="21">
-      <c r="A36" s="24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="20.25">
+    <row r="37" spans="1:28" ht="19.2">
       <c r="A37" s="25" t="s">
-        <v>116</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" ht="19.2">
+      <c r="A38" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="S38" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="T38" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="U38" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="V38" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="W38" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="X38" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y38" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z38" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA38" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB38" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3">
+        <v>6196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>8565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7">
+        <v>4621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12">
+        <v>4782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30">
+        <v>4924</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <f>COUNTA(A3:A30)</f>
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <f>SUM(B3:B30)</f>
+        <v>56043</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="J1:AG24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W9" activeCellId="1" sqref="W9:X9 W9:X9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="10:33" ht="14.25" customHeight="1">
+      <c r="L1" t="s">
+        <v>189</v>
+      </c>
+      <c r="T1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="10:33" ht="14.25" customHeight="1">
+      <c r="K2" t="s">
+        <v>188</v>
+      </c>
+      <c r="S2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="10:33" ht="14.25" customHeight="1">
+      <c r="L3" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="M3" s="38"/>
+      <c r="N3" s="40">
+        <v>100</v>
+      </c>
+      <c r="O3" s="40"/>
+      <c r="T3" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="U3" s="38"/>
+      <c r="V3" s="40">
+        <v>100</v>
+      </c>
+      <c r="W3" s="40"/>
+      <c r="AB3" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="40">
+        <v>100</v>
+      </c>
+      <c r="AE3" s="40"/>
+    </row>
+    <row r="4" spans="10:33" ht="14.25" customHeight="1">
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+    </row>
+    <row r="5" spans="10:33" ht="14.25" customHeight="1">
+      <c r="L5" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="M5" s="28"/>
+      <c r="N5" s="34" t="str">
+        <f t="shared" ref="N5:O5" si="0">IF(ISTEXT(N4),"|||","")</f>
+        <v/>
+      </c>
+      <c r="O5" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T5" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="U5" s="28"/>
+      <c r="V5" s="34" t="str">
+        <f t="shared" ref="V5:W5" si="1">IF(ISTEXT(V4),"|||","")</f>
+        <v/>
+      </c>
+      <c r="W5" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AB5" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="34" t="str">
+        <f t="shared" ref="AD5:AE5" si="2">IF(ISTEXT(AD4),"|||","")</f>
+        <v/>
+      </c>
+      <c r="AE5" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="10:33" ht="14.25" customHeight="1">
+      <c r="L6" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="M6" s="28"/>
+      <c r="N6" s="40">
+        <v>100</v>
+      </c>
+      <c r="O6" s="40"/>
+      <c r="T6" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="U6" s="28"/>
+      <c r="V6" s="40">
+        <v>100</v>
+      </c>
+      <c r="W6" s="40"/>
+      <c r="AB6" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="40">
+        <v>100</v>
+      </c>
+      <c r="AE6" s="40"/>
+    </row>
+    <row r="8" spans="10:33" ht="14.25" customHeight="1">
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="T8" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="U8" s="28"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="32"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="32"/>
+    </row>
+    <row r="9" spans="10:33" ht="14.25" customHeight="1">
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
+    </row>
+    <row r="11" spans="10:33" ht="14.25" customHeight="1">
+      <c r="K11" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="L11" s="37"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="T11" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40">
+        <v>0</v>
+      </c>
+      <c r="W11" s="40"/>
+      <c r="AC11" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="40">
+        <v>100</v>
+      </c>
+      <c r="AF11" s="40"/>
+    </row>
+    <row r="12" spans="10:33" ht="14.25" customHeight="1">
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+    </row>
+    <row r="13" spans="10:33" ht="14.25" customHeight="1">
+      <c r="J13" t="s">
+        <v>185</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="L13" s="28"/>
+      <c r="M13" s="34" t="str">
+        <f t="shared" ref="M13:N13" si="3">IF(ISTEXT(M12),"|||","")</f>
+        <v/>
+      </c>
+      <c r="N13" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T13" s="35" t="str">
+        <f t="shared" ref="T13:X13" si="4">IF(T12=0,"",T12)</f>
+        <v/>
+      </c>
+      <c r="U13" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="V13" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W13" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="X13" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AC13" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="34" t="str">
+        <f t="shared" ref="AE13:AF13" si="5">IF(ISTEXT(AE12),"|||","")</f>
+        <v/>
+      </c>
+      <c r="AF13" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="10:33" ht="14.25" customHeight="1">
+      <c r="K14" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="L14" s="28"/>
+      <c r="M14" s="40">
+        <v>100</v>
+      </c>
+      <c r="N14" s="40"/>
+      <c r="AC14" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="40">
+        <v>100</v>
+      </c>
+      <c r="AF14" s="40"/>
+    </row>
+    <row r="15" spans="10:33" ht="14.25" customHeight="1">
+      <c r="AB15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="10:33" ht="14.25" customHeight="1">
+      <c r="AC16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="11:31" ht="14.25" customHeight="1">
+      <c r="L19" s="30"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="AB19" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="40">
+        <v>100</v>
+      </c>
+      <c r="AE19" s="40"/>
+    </row>
+    <row r="20" spans="11:31" ht="14.25" customHeight="1">
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+    </row>
+    <row r="21" spans="11:31" ht="14.25" customHeight="1">
+      <c r="K21" t="s">
+        <v>184</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="M21" s="28"/>
+      <c r="N21" s="34" t="str">
+        <f t="shared" ref="N21:O21" si="6">IF(ISTEXT(N20),"|||","")</f>
+        <v/>
+      </c>
+      <c r="O21" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T21" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="U21" s="28"/>
+      <c r="V21" s="31" t="str">
+        <f t="shared" ref="V21:W21" si="7">IF(ISTEXT(V20),V20,"")</f>
+        <v/>
+      </c>
+      <c r="W21" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB21" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="34" t="str">
+        <f t="shared" ref="AD21:AE21" si="8">IF(ISTEXT(AD20),"|||","")</f>
+        <v/>
+      </c>
+      <c r="AE21" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="11:31" ht="14.25" customHeight="1">
+      <c r="L22" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="M22" s="28"/>
+      <c r="N22" s="40">
+        <v>100</v>
+      </c>
+      <c r="O22" s="40"/>
+      <c r="T22" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="U22" s="28"/>
+      <c r="V22" s="40">
+        <v>100</v>
+      </c>
+      <c r="W22" s="40"/>
+      <c r="AB22" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="40">
+        <v>100</v>
+      </c>
+      <c r="AE22" s="40"/>
+    </row>
+    <row r="23" spans="11:31" ht="14.25" customHeight="1">
+      <c r="AA23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="11:31" ht="14.25" customHeight="1">
+      <c r="AB24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="58">
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="T9:U9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>